--- a/Values.xlsx
+++ b/Values.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,43 +19,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Azure service ID</t>
-  </si>
-  <si>
-    <t>www.gogo.com</t>
-  </si>
-  <si>
-    <t>Gogo unavailable</t>
-  </si>
-  <si>
-    <t>az-rg-xyz</t>
-  </si>
-  <si>
-    <t>status Code</t>
-  </si>
-  <si>
-    <t>www.test.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>az-ai-aaa</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>actionGroupShortName</t>
+  </si>
+  <si>
+    <t>instanceName</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>backoffice</t>
+  </si>
+  <si>
+    <t>ACC BO PR</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>backoffice-home</t>
+  </si>
+  <si>
+    <t>webtestUrl</t>
+  </si>
+  <si>
+    <t>https://edit.theaccnz.com</t>
+  </si>
+  <si>
+    <t>exprectHTTPCode</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>appInsightResourceName</t>
+  </si>
+  <si>
+    <t>z-umbraco-acc-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>pingName/alertName</t>
+  </si>
+  <si>
+    <t>alertDesc</t>
+  </si>
+  <si>
+    <t>The Acc Production backoffice is unavailable https://edit.theaccnz.com/</t>
+  </si>
+  <si>
+    <t>alertSeverity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +100,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +129,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,21 +416,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,42 +450,66 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Values.xlsx
+++ b/Values.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$51</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="248">
   <si>
     <t>actionGroupShortName</t>
   </si>
@@ -75,10 +79,700 @@
     <t>alertDesc</t>
   </si>
   <si>
-    <t>The Acc Production backoffice is unavailable https://edit.theaccnz.com/</t>
-  </si>
-  <si>
     <t>alertSeverity</t>
+  </si>
+  <si>
+    <t>CO BO PR</t>
+  </si>
+  <si>
+    <t>Coast</t>
+  </si>
+  <si>
+    <t>z-umbraco-co-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>FLA BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.flava.co.nz</t>
+  </si>
+  <si>
+    <t>Flava</t>
+  </si>
+  <si>
+    <t>z-umbraco-fla-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>The Flava Production Backoffice is unavailable https://edit.flava.co.nz/</t>
+  </si>
+  <si>
+    <t>HAU BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.hauraki.co.nz</t>
+  </si>
+  <si>
+    <t>Hauraki</t>
+  </si>
+  <si>
+    <t>z-umbraco-hau-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>The Hauraki Radio Production Backoffice is unavailable https://edit.hauraki.co.nz/</t>
+  </si>
+  <si>
+    <t>contextName</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>fla</t>
+  </si>
+  <si>
+    <t>hau</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>z-umbraco-hits-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>Hoko</t>
+  </si>
+  <si>
+    <t>z-umbraco-hoko-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>The Hits Production Backoffice homepage is unavailable https://edit.thehits.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hokonui Production Backoffice is unavailable https://edit.hokonui.co.nz/</t>
+  </si>
+  <si>
+    <t>hoko</t>
+  </si>
+  <si>
+    <t>HITS BO PR</t>
+  </si>
+  <si>
+    <t>HOKO BO PR</t>
+  </si>
+  <si>
+    <t>MIX BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.themixonline.co.nz</t>
+  </si>
+  <si>
+    <t>https://edit.hokonui.co.nz</t>
+  </si>
+  <si>
+    <t>https://edit.thehits.co.nz</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>z-umbraco-mix-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>The Mix Online Production Backoffice is unavailable https://edit.themixonline.co.nz/</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>NZB BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.newstalkzb.co.nz</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>z-umbraco-nzb-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>Newstalk ZB Production Backoffice is unavailable https://edit.newstalkzb.co.nz/</t>
+  </si>
+  <si>
+    <t>nzb</t>
+  </si>
+  <si>
+    <t>RS BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.radiosport.co.nz</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>z-umbraco-rs-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>RadioSport Production Backoffice is unavailable https://edit.radiosport.co.nz/</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>WM BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.watchme.co.nz</t>
+  </si>
+  <si>
+    <t>WatchMe</t>
+  </si>
+  <si>
+    <t>z-umbraco-wm-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>wm</t>
+  </si>
+  <si>
+    <t>The Acc Production Backoffice is unavailable https://edit.theaccnz.com/</t>
+  </si>
+  <si>
+    <t>Watchme Production Backoffice is unavailable https://edit.watchme.co.nz/</t>
+  </si>
+  <si>
+    <t>ZM BO PR</t>
+  </si>
+  <si>
+    <t>https://edit.zmonline.com</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>z-umbraco-zm-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>ZM Production Backoffice is unavailable https://edit.zmonline.com</t>
+  </si>
+  <si>
+    <t>zm</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>www-home</t>
+  </si>
+  <si>
+    <t>https://www.theaccnz.com</t>
+  </si>
+  <si>
+    <t>https://www.flava.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.hauraki.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.thehits.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.hokonui.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.themixonline.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.newstalkzb.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.radiosport.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.watchme.co.nz</t>
+  </si>
+  <si>
+    <t>https://www.zmonline.com</t>
+  </si>
+  <si>
+    <t>z-umbraco-acc-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-fla-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-co-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-hau-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-hits-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-hoko-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-mix-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-nzb-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-rs-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-wm-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>z-umbraco-zm-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>ACC FE PR</t>
+  </si>
+  <si>
+    <t>CO FE PR</t>
+  </si>
+  <si>
+    <t>FLA FE PR</t>
+  </si>
+  <si>
+    <t>HAU FE PR</t>
+  </si>
+  <si>
+    <t>HITS FE PR</t>
+  </si>
+  <si>
+    <t>HOKO FE PR</t>
+  </si>
+  <si>
+    <t>MIX FE PR</t>
+  </si>
+  <si>
+    <t>NZB FE PR</t>
+  </si>
+  <si>
+    <t>RS FE PR</t>
+  </si>
+  <si>
+    <t>WM FE PR</t>
+  </si>
+  <si>
+    <t>ZM FE PR</t>
+  </si>
+  <si>
+    <t>The Acc Production Homepage is unavailable https://www.theaccnz.com/</t>
+  </si>
+  <si>
+    <t>The Flava Production Homepage is unavailable https://www.flava.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hauraki Radio Production Homepage is unavailable https://www.hauraki.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hits Production Backoffice Homepage is unavailable https://www.thehits.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hokonui Production Homepage is unavailable https://www.hokonui.co.nz/</t>
+  </si>
+  <si>
+    <t>The Mix Online Production Homepage is unavailable https://www.themixonline.co.nz/</t>
+  </si>
+  <si>
+    <t>Newstalk ZB Production Homepage is unavailable https://www.newstalkzb.co.nz/</t>
+  </si>
+  <si>
+    <t>RadioSport Production Homepage is unavailable https://www.radiosport.co.nz/</t>
+  </si>
+  <si>
+    <t>Watchme Production Homepage is unavailable https://www.watchme.co.nz/</t>
+  </si>
+  <si>
+    <t>ZM Production Homepage is unavailable https://www.zmonline.com</t>
+  </si>
+  <si>
+    <t>NZME</t>
+  </si>
+  <si>
+    <t>https://www.nzme.co.nz</t>
+  </si>
+  <si>
+    <t>https://advertising.nzme.co.nz</t>
+  </si>
+  <si>
+    <t>NZME Production Homepage is unavailable https://www.nzme.co.nz</t>
+  </si>
+  <si>
+    <t>nzme-corp</t>
+  </si>
+  <si>
+    <t>nzme-trade</t>
+  </si>
+  <si>
+    <t>NZME Trade FE PR</t>
+  </si>
+  <si>
+    <t>NZME Trade Production Homepage is unavailable https://advertising.nzme.co.nz</t>
+  </si>
+  <si>
+    <t>iHeartRadio</t>
+  </si>
+  <si>
+    <t>z-umbraco-iht-frontend-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>iht</t>
+  </si>
+  <si>
+    <t>iHeart FE PR</t>
+  </si>
+  <si>
+    <t>NZME Corp FE PR</t>
+  </si>
+  <si>
+    <t>https://edit.thecoast.net.nz</t>
+  </si>
+  <si>
+    <t>https://www.thecoast.net.nz</t>
+  </si>
+  <si>
+    <t>https://www.iheartradio.net.nz/iheartradio</t>
+  </si>
+  <si>
+    <t>https://www.iheartradio.net.nz/umbraco</t>
+  </si>
+  <si>
+    <t>Umbraco</t>
+  </si>
+  <si>
+    <t>z-umbraco-iht-backoffice-ai-ae-pr</t>
+  </si>
+  <si>
+    <t>The Coast Production Homepage is unavailable https://www.thecoast.net.nz/</t>
+  </si>
+  <si>
+    <t>The Coast Production Backoffice is unavailable https://edit.thecoast.net.nz</t>
+  </si>
+  <si>
+    <t>iHeartRadio Production Homepage is unavailable https://www.iheartradio.net.nz/iheartradio</t>
+  </si>
+  <si>
+    <t>iHeartRadio Production Backoffice is unavailable https://www.iheartradio.net.nz/umbraco</t>
+  </si>
+  <si>
+    <t>iHeart BO PR</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-acc-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-co-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-fla-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-hau-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-hits-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-hoko-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-iht-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-mix-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-nzb-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-rs-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-wm-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-zm-backoffice-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-acc-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-co-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-fla-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-hau-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-hits-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-hoko-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-iht-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-mix-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-nzb-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-rs-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-wm-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>z-umbraco-zm-frontend-ai-ae-dv</t>
+  </si>
+  <si>
+    <t>ACC BO DV</t>
+  </si>
+  <si>
+    <t>CO BO DV</t>
+  </si>
+  <si>
+    <t>FLA BO DV</t>
+  </si>
+  <si>
+    <t>HAU BO DV</t>
+  </si>
+  <si>
+    <t>HITS BO DV</t>
+  </si>
+  <si>
+    <t>HOKO BO DV</t>
+  </si>
+  <si>
+    <t>iHeart BO DV</t>
+  </si>
+  <si>
+    <t>MIX BO DV</t>
+  </si>
+  <si>
+    <t>NZB BO DV</t>
+  </si>
+  <si>
+    <t>RS BO DV</t>
+  </si>
+  <si>
+    <t>WM BO DV</t>
+  </si>
+  <si>
+    <t>ZM BO DV</t>
+  </si>
+  <si>
+    <t>ACC FE DV</t>
+  </si>
+  <si>
+    <t>CO FE DV</t>
+  </si>
+  <si>
+    <t>FLA FE DV</t>
+  </si>
+  <si>
+    <t>HAU FE DV</t>
+  </si>
+  <si>
+    <t>HITS FE DV</t>
+  </si>
+  <si>
+    <t>HOKO FE DV</t>
+  </si>
+  <si>
+    <t>iHeart FE DV</t>
+  </si>
+  <si>
+    <t>MIX FE DV</t>
+  </si>
+  <si>
+    <t>NZB FE DV</t>
+  </si>
+  <si>
+    <t>RS FE DV</t>
+  </si>
+  <si>
+    <t>WM FE DV</t>
+  </si>
+  <si>
+    <t>ZM FE DV</t>
+  </si>
+  <si>
+    <t>https://dev-edit.theaccnz.com</t>
+  </si>
+  <si>
+    <t>https://dev-edit.thecoast.net.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.flava.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.hauraki.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.thehits.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.hokonui.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.themixonline.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.newstalkzb.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.radiosport.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.watchme.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-edit.zmonline.com</t>
+  </si>
+  <si>
+    <t>https://dev-www.theaccnz.com</t>
+  </si>
+  <si>
+    <t>https://dev-www.thecoast.net.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.flava.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.hauraki.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.thehits.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.hokonui.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.iheartradio.net.nz/iheartradio</t>
+  </si>
+  <si>
+    <t>https://dev-www.themixonline.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.newstalkzb.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.radiosport.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.watchme.co.nz</t>
+  </si>
+  <si>
+    <t>https://dev-www.zmonline.com</t>
+  </si>
+  <si>
+    <t>https://dev-www.iheartradio.net.nz/umbraco</t>
+  </si>
+  <si>
+    <t>The Acc Development Backoffice is unavailable https://dev-edit.theaccnz.com/</t>
+  </si>
+  <si>
+    <t>The Coast Development Backoffice is unavailable https://dev-edit.thecoast.net.nz</t>
+  </si>
+  <si>
+    <t>The Flava Development Backoffice is unavailable https://dev-edit.flava.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hauraki Radio Development Backoffice is unavailable https://dev-edit.hauraki.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hits Development Backoffice homepage is unavailable https://dev-edit.thehits.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hokonui Development Backoffice is unavailable https://dev-edit.hokonui.co.nz/</t>
+  </si>
+  <si>
+    <t>iHeartRadio Development Backoffice is unavailable https://dev-www.iheartradio.net.nz/umbraco</t>
+  </si>
+  <si>
+    <t>The Mix Online Development Backoffice is unavailable https://dev-edit.themixonline.co.nz/</t>
+  </si>
+  <si>
+    <t>Newstalk ZB Development Backoffice is unavailable https://dev-edit.newstalkzb.co.nz/</t>
+  </si>
+  <si>
+    <t>RadioSport Development Backoffice is unavailable https://dev-edit.radiosport.co.nz/</t>
+  </si>
+  <si>
+    <t>Watchme Development Backoffice is unavailable https://dev-edit.watchme.co.nz/</t>
+  </si>
+  <si>
+    <t>ZM Development Backoffice is unavailable https://dev-edit.zmonline.com</t>
+  </si>
+  <si>
+    <t>The Acc Development Homepage is unavailable https://dev-www.theaccnz.com/</t>
+  </si>
+  <si>
+    <t>The Coast Development Homepage is unavailable https://dev-www.thecoast.net.nz/</t>
+  </si>
+  <si>
+    <t>The Flava Development Homepage is unavailable https://dev-www.flava.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hauraki Radio Development Homepage is unavailable https://dev-www.hauraki.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hits Development Backoffice Homepage is unavailable https://dev-www.thehits.co.nz/</t>
+  </si>
+  <si>
+    <t>The Hokonui Development Homepage is unavailable https://dev-www.hokonui.co.nz/</t>
+  </si>
+  <si>
+    <t>iHeartRadio Development Homepage is unavailable https://dev-www.iheartradio.net.nz/iheartradio</t>
+  </si>
+  <si>
+    <t>The Mix Online Development Homepage is unavailable https://dev-www.themixonline.co.nz/</t>
+  </si>
+  <si>
+    <t>Newstalk ZB Development Homepage is unavailable https://dev-www.newstalkzb.co.nz/</t>
+  </si>
+  <si>
+    <t>RadioSport Development Homepage is unavailable https://dev-www.radiosport.co.nz/</t>
+  </si>
+  <si>
+    <t>Watchme Development Homepage is unavailable https://dev-www.watchme.co.nz/</t>
+  </si>
+  <si>
+    <t>ZM Development Homepage is unavailable https://dev-www.zmonline.com</t>
+  </si>
+  <si>
+    <t>emailList</t>
+  </si>
+  <si>
+    <t>[{
+          "name": "NZME Dev Group",
+          "email": "dotnetdevs@groups.nzme.co.nz"
+        }]</t>
+  </si>
+  <si>
+    <t>[{
+          "name": "NZME Dev Group",
+          "email": "dotnetdevs@groups.nzme.co.nz"
+        },]</t>
   </si>
 </sst>
 </file>
@@ -102,10 +796,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,11 +825,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -408,7 +1105,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,65 +1113,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,7 +1193,7 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
@@ -499,17 +1202,3056 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1">
+        <v>72</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33">
+        <v>200</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
+      </c>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38">
+        <v>200</v>
+      </c>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40">
+        <v>200</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41">
+        <v>200</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" t="s">
+        <v>235</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43">
+        <v>200</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>164</v>
+      </c>
+      <c r="J43" t="s">
+        <v>236</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44">
+        <v>200</v>
+      </c>
+      <c r="H44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" t="s">
+        <v>237</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46">
+        <v>200</v>
+      </c>
+      <c r="H46" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" t="s">
+        <v>239</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>215</v>
+      </c>
+      <c r="G47">
+        <v>200</v>
+      </c>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" t="s">
+        <v>240</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+      <c r="H48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" t="s">
+        <v>241</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>60</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49">
+        <v>200</v>
+      </c>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>242</v>
+      </c>
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>218</v>
+      </c>
+      <c r="G50">
+        <v>200</v>
+      </c>
+      <c r="H50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J50" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51">
+        <v>200</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L51"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F12" r:id="rId9"/>
+    <hyperlink ref="F13" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F18" r:id="rId14"/>
+    <hyperlink ref="F19" r:id="rId15"/>
+    <hyperlink ref="F21" r:id="rId16"/>
+    <hyperlink ref="F22" r:id="rId17"/>
+    <hyperlink ref="F23" r:id="rId18"/>
+    <hyperlink ref="F24" r:id="rId19"/>
+    <hyperlink ref="F25" r:id="rId20"/>
+    <hyperlink ref="F14" r:id="rId21"/>
+    <hyperlink ref="F26" r:id="rId22"/>
+    <hyperlink ref="F27" r:id="rId23"/>
+    <hyperlink ref="I20" r:id="rId24" location="@nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr" display="https://portal.azure.com/ - @nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr"/>
+    <hyperlink ref="I8" r:id="rId25" location="@nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr" display="https://portal.azure.com/ - @nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr"/>
+    <hyperlink ref="F20" r:id="rId26"/>
+    <hyperlink ref="F8" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28" display="https://edit.thecoast.net.nz"/>
+    <hyperlink ref="F30" r:id="rId29" display="https://edit.flava.co.nz"/>
+    <hyperlink ref="F31" r:id="rId30" display="https://edit.hauraki.co.nz"/>
+    <hyperlink ref="F32" r:id="rId31" display="https://edit.thehits.co.nz"/>
+    <hyperlink ref="F33" r:id="rId32" display="https://edit.hokonui.co.nz"/>
+    <hyperlink ref="F35" r:id="rId33" display="https://edit.themixonline.co.nz"/>
+    <hyperlink ref="F36" r:id="rId34" display="https://edit.newstalkzb.co.nz"/>
+    <hyperlink ref="F37" r:id="rId35" display="https://edit.radiosport.co.nz"/>
+    <hyperlink ref="F38" r:id="rId36" display="https://edit.watchme.co.nz"/>
+    <hyperlink ref="F39" r:id="rId37" display="https://edit.zmonline.com"/>
+    <hyperlink ref="F41" r:id="rId38" display="https://www.thecoast.net.nz"/>
+    <hyperlink ref="F42" r:id="rId39" display="https://www.flava.co.nz"/>
+    <hyperlink ref="F43" r:id="rId40" display="https://www.hauraki.co.nz"/>
+    <hyperlink ref="F44" r:id="rId41" display="https://www.thehits.co.nz"/>
+    <hyperlink ref="F45" r:id="rId42" display="https://www.hokonui.co.nz"/>
+    <hyperlink ref="F47" r:id="rId43" display="https://www.themixonline.co.nz"/>
+    <hyperlink ref="F48" r:id="rId44" display="https://www.newstalkzb.co.nz"/>
+    <hyperlink ref="F49" r:id="rId45" display="https://www.radiosport.co.nz"/>
+    <hyperlink ref="F50" r:id="rId46" display="https://www.watchme.co.nz"/>
+    <hyperlink ref="F51" r:id="rId47" display="https://www.zmonline.com"/>
+    <hyperlink ref="F40" r:id="rId48" display="https://www.theaccnz.com"/>
+    <hyperlink ref="I46" r:id="rId49" location="@nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr" display="https://portal.azure.com/ - @nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr"/>
+    <hyperlink ref="I34" r:id="rId50" location="@nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr" display="https://portal.azure.com/ - @nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr"/>
+    <hyperlink ref="F46" r:id="rId51" display="https://www.iheartradio.net.nz/iheartradio"/>
+    <hyperlink ref="F34" r:id="rId52" display="https://www.iheartradio.net.nz/umbraco"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23">
+        <v>200</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://edit.thecoast.net.nz"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://edit.flava.co.nz"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://edit.hauraki.co.nz"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://edit.thehits.co.nz"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://edit.hokonui.co.nz"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://edit.themixonline.co.nz"/>
+    <hyperlink ref="F9" r:id="rId7" display="https://edit.newstalkzb.co.nz"/>
+    <hyperlink ref="F10" r:id="rId8" display="https://edit.radiosport.co.nz"/>
+    <hyperlink ref="F11" r:id="rId9" display="https://edit.watchme.co.nz"/>
+    <hyperlink ref="F12" r:id="rId10" display="https://edit.zmonline.com"/>
+    <hyperlink ref="F14" r:id="rId11" display="https://www.thecoast.net.nz"/>
+    <hyperlink ref="F15" r:id="rId12" display="https://www.flava.co.nz"/>
+    <hyperlink ref="F16" r:id="rId13" display="https://www.hauraki.co.nz"/>
+    <hyperlink ref="F17" r:id="rId14" display="https://www.thehits.co.nz"/>
+    <hyperlink ref="F18" r:id="rId15" display="https://www.hokonui.co.nz"/>
+    <hyperlink ref="F20" r:id="rId16" display="https://www.themixonline.co.nz"/>
+    <hyperlink ref="F21" r:id="rId17" display="https://www.newstalkzb.co.nz"/>
+    <hyperlink ref="F22" r:id="rId18" display="https://www.radiosport.co.nz"/>
+    <hyperlink ref="F23" r:id="rId19" display="https://www.watchme.co.nz"/>
+    <hyperlink ref="F24" r:id="rId20" display="https://www.zmonline.com"/>
+    <hyperlink ref="F13" r:id="rId21" display="https://www.theaccnz.com"/>
+    <hyperlink ref="I19" r:id="rId22" location="@nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr" display="https://portal.azure.com/ - @nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr"/>
+    <hyperlink ref="I7" r:id="rId23" location="@nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr" display="https://portal.azure.com/ - @nzme.onmicrosoft.com/resource/subscriptions/552dcf4a-07f0-4dad-bb47-a11d97a86e9b/resourceGroups/z-umbraco-iht-rg-ae-pr/providers/Microsoft.Insights/components/z-umbraco-iht-frontend-ai-ae-pr"/>
+    <hyperlink ref="F19" r:id="rId24" display="https://www.iheartradio.net.nz/iheartradio"/>
+    <hyperlink ref="F7" r:id="rId25" display="https://www.iheartradio.net.nz/umbraco"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>